--- a/deuChatbot/research_result/results/meteor_score/meteor_version_2(3000_400).xlsx
+++ b/deuChatbot/research_result/results/meteor_score/meteor_version_2(3000_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6236,61 +6236,3580 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 제공된 정보로는 디자인조형학과의 실기시험 내용에 대한 구체적인 정보가 없습니다. 하지만 일반적으로 디자인조형학과의 실기 시험은 다음과 같은 요소들을 포함할 수 있습니다:
+1. 그림 그리기:
+   - 일러스트레이션 또는 캐릭터 디자인
+   - 환경설계나 인테리어 디자인을 위한 스케치
+2. 색채 작업:
+   - 색상 조합과 배치를 이용한 작품 제작
+   - 색채 이론 이해 확인
+3. 도형 및 구조 작업:
+   - 2D 또는 3D 모델링
+   - 공간 구성 능력 평가
+4. 디자인 프로젝트:
+   - 주제에 따른 자유롭게 작품 제작
+   - 창의성과 독창성을 평가
+5. 기술적 실기:
+   - 도구 사용 능력 (예: 캡슐, 펜 등)
+   - 다양한 재료와 기법 활용 가능
+6. 디자인 이론 이해 확인:
+   - 관련 이론 문제 풀이
+   - 작품 해석 및 비평
+7. 시간 관리 능력 평가:
+   - 주어진 시간 내에 작업 완성 여부
+각 대학과 학과는 실기 시험 내용을 다르게 설정할 수 있으므로, 정확한 정보를 얻으려면 해당 대학의 공식 입시 안내서나 입학처 웹사이트를 참조하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3969430186521108</v>
+        <v>0.2162055604856422</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인이 있으며, 각 분야에서 선택 가능한 실기종목은 다음과 같습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B 중 각 1개씩 선택하여 연결된 주제를 당일 추첨으로 결정합니다.
+   - 예시: 잠자리와 저울, 콜라병과 계절 등.
+4. **화지크기**: 켄트지3절
+5. **시간**: 5시간
+이 정보는 디자인조형학과의 실기시험에 대한 기본적인 준비를 위한 안내입니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2234025371087612</v>
+        <v>0.3891951435863297</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. 배드민턴(남)의 인정대회:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - various international tournaments (only those where the team is part of the national or junior teams are recognized)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 인정대회:
+   - Chunghwa Korea High School Football Federation Spring Tournament
+   - Korea High School Football Federation Autumn Tournament
+   - KFA Cup National High School Football Championship
+   - Minister of Culture, Sports and Tourism Cup National High School Football Championship
+   - Minister of Culture, Sports and Tourism Cup National High School Football Championship (King of the Hill)
+   - Baekwon Cup National High School Football Championship
+   - Korea High School Football League (Regional High School Football League)
+   - Korea High School Football League King of the Hill
+   - Muok Cup National High School Football Championship
+   - Dragon Tiger Cup National High School Football Championship
+   - Baegrok Cup National High School Football Championship
+   - Geumgangda Cup National High School Football Championship
+   - President's Gold Cup National High School Football Championship
+   - Jinseok Cup National High School Football Championship
+   - Busan MBC National High School Football Championship
+   - K League U18 Champions League
+   - K League U18 Champions League King of the Hill
+이러한 대회들 중에서 해당 종목과 관련된 대회만 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.2766059987151216</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인의 기초디자인 실기시험에서 사용되는 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+수험자는 주제A와 주제B 각각에서 1개씩 선택하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예를 들어 잠자리와 저울 같은 주제들을 조합할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.7228418320872828</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도부터 학생부교과 전형에서 출결 점수가 반영됩니다. 
+전형요소 반영비율에 따르면:
+- 실기/실적(경기실적우수자전형): 학생부교과 18% + 출결 12% + 서류(실적) 70%
+- 학생부종합(조기취업형계약학과전형): 서류(학생부) 60% + 면접 40%
+따라서, 출결 점수가 일부 모집단위에서는 학생부교과와 함께 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1162942309235336</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.7056312223451328</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+이 정보는 다음과 같은 문단에서 얻었습니다:
+다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위은 영어영문학과 - 교직이며, 모집인원은 28이다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2233877233877233</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다. 의료보건생활대학 간호학과의 나군 일반학생 전형에서 모집 인원은 22명이라고 기재되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.4768331084120557</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7437452016438605</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>该艺术高中的学生可以申请作为农村/边远地区学生类型（即"나군 학생부교과(농어촌학생전형)"）进行申请。但是，需要确认的是，不同大学的具体要求可能会有所不同。
+根据您提供的信息，对于“나군 학생부교과(농어촌학생전형)”：
+1. **提交材料**：农村/边远地区学生类型也需要提交高中的学籍证明书（1份），如果同意在线提供学生档案，则无需提交纸质版。此外还需要提交其他相关证明文件，如居住地证明等。
+2. **评价标准**：
+   - 共同体能力：最高 140 分
+   - 学业能力：最高 280 分
+   - 专业适应性：最高 280 分
+3. **面试**（如果需要）：通常会进行个别面试，时间大约为每人不超过10分钟。面试内容包括：
+   - 支持动机及学业计划
+   - 学业能力、专业适应性相关共同问题陈述和问答
+   - 其他事项确认（使用面试问题表验证提交文件的真实性）
+4. **其他注意事项**：需要提供居住在农村或边远地区的证明，以及可能还需要提供家庭经济状况的相关证明。
+建议您直接查看该大学的具体招生简章或咨询学校招生办公室以获取最准确的信息。因为不同专业的具体要求可能会有所不同，确保所有材料都符合要求是非常重要的。</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.1153146164632873</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277~280cm이며, 배점은 325점입니다.
+이 정보는 다음과 같은 테이블에서 추출되었습니다:
+| 등급 | 남은 거리(cm) | 여은 거리(cm) | 배점 |
+|------|---------------|---------------|-----|
+| 4    | 277~280       | 223~226       | 325 |
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 277cm 이상에서 280cm 미만까지이며, 배점은 325점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1960643234881462</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "전형요소 반영비율" 섹션에서 찾을 수 있으며, 해당 항목에 따르면:
+- 전형 유형: 실기/실적 위주
+- 전형명: 다군 실기/실적(일반학생전형) 경기지도학과 
+- 모집 인원: 7명
+- 사정 단계: 일괄 합산
+- 전형요소 반영비율:
+  - 학생부 교과: 18%
+  - 출결: 12%
+  - 서류: 70%
+  - 면접: 0%
+  - 실기: 0%
+  - 수능: 0%
+따라서 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.09603377963838465</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.
+관련 정보는 다음과 같습니다:
+- 전형일정 내용: &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+- 일정: 2024. 01. 17.(수)
+이 정보는 제공된 문단에서 직접 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.1270408163265306</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보는 없습니다. 그러나 다른 공과대학 관련 모집단위들의 수능 최저기준을 통해 추론할 수 있습니다.
+공과대학 관련 모집단위들 중에서 가장 유사한 경우를 살펴보면:
+1. 환경공학과, 화학공학과, 응용화학과: 이 모집단위들의 모집인원은 101명이고, 지원인원은 122명으로 경쟁률이 1.21입니다.
+   - 전형요소 반영비율에서 수능 비율은 100%로 나타났습니다.
+2. 이와 유사한 경우를 고려하면 응용화학과의 수능 최저기준도 대략적으로 동일할 가능성이 높습니다.
+따라서, 일반적으로 동의대학교 응용화학과의 2024학년도 수능 최저기준은 다음과 같을 것으로 추정됩니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 276.61
+- 수능 4개 영역 등급의 평균: 5.59
+이러한 수치는 참고용이며, 실제 최저기준은 동의대학교에서 공식 발표하는 정보를 확인해야 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.02247701048439056</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 직접적으로 동의대학교 2024학년도에 신설된 학과에 대한 언급은 없습니다. 하지만, 전형별 모집단위별 모집인원 섹션에서 몇 가지 새로운 학과와 계열이 언급되었습니다:
+1. 스마트호스피탈리티학과 (상경대학 인문사회 계열)
+2. 미래형자동차학과 (IT융합부품소재공과대학 공학 계열)
+3. 소프트웨어융합학과 (ICT공과대학 공학 계열)
+이러한 학과들은 전형별 모집단위별 모집인원 섹션에서 정원 외로 언급되어 있으며, 이는 신설 또는 추가된 학과를 의미할 수 있습니다. 하지만 확실한 확인을 위해서는 동의대학교 공식 입학 안내 웹사이트나 총장실에 직접 문의하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.1462275055170103</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 70%
+- 출결: 12%
+- 서류: 18%
+이러한 비율로 서류 평가에서 가장 큰 비중을 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.439201451905626</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여합니다. 이는 "수능 반영영역 및 가산점" 섹션에서 확인할 수 있습니다:
+- 모집단위은 한의예과 수학(미적분/기하) 응시자이며, 수능 반영영역 및 잔영비율은 국어(화법과작문 또는 언어와매체) 25% +수학 (미적분 or 기하) 25% + 영어 25% + 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목 합) 25%이며, 가산점은 수학(미적분 or 기하) 응시자 : 수학 취득 표준점수의 10% 가산점이다.
+따라서 동의대학교에서는 한의예과에서만 수능 수학(미적분 또는 기하) 응시자의 경우에만 10% 가산점을 부여합니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.2033071400305274</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군(일반학생전형)에서는 수능 성적을 다음과 같이 반영합니다:
+- **수능 반영 영역**: 국어, 수학, 영어, 탐구 영역 중 선택한 2개 과목
+- **각 영역별 반영 비율**: 25%
+따라서 총합계 점수는 다음과 같이 계산됩니다:
+- 국어 (화법과작문 또는 언어와매체) : 25%
+- 수학 (확률과통계 또는 미적분 또는 기하) : 25%
+- 영어 : 25%
+- 탐구 (사회탐구 또는 과학탐구 또는 직업탐구 중 선택한 2개 과목 합) : 25%
+이러한 방식으로 수능 성적이 총합계 점수의 100%를 차지하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1560098265261309</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과 제자리 멀리뛰기: 2024. 01. 16.(화)
+- 태권도학과 Z-런: 2024. 01. 17.(수)
+따라서, 레저스포츠학과는 2024년 1월 16일 화요일에 실기고사를 치르며, 태권도학과는 같은 달 17일 수요일에 Z-런을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1788477227332827</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 다음과 같은 모집단위가 제외됩니다:
+- 한의예과 (수학(미적분/기하), 수학(확률과 통계))
+- 디자인조형학과
+- 체육학과
+- 경기지도학과
+이러한 모집단위는 나군 실기/실적(일반학생전형)의 경우에도 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.3204315796612468</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+참조된 정보 중 "수능최저기준은 수능최저기준 없음"이라는 문구가有多余的信息，关键信息如下：
+- 适用类型：多军（다군）
+- 招生类别：一般学生入学考试（일반학생전형）
+- 所有招生专业
+- 考试科目及权重：100%由高考成绩决定，没有其他科目的最低要求。
+因此可以明确，2024年多军的多所大学在一般学生入学考试中，并未设定任何科目或总分的最低标准。</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.265017667844523</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과 (2024년도에는 모집중지)
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 변경사항은 2024학년도부터 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8845295447146586</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 일반학생전형의 원서접수 마감일은 2023년 11월 7일입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.559142561983471</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **학생부종합전형**:
+   - **서류평가 영역 및 배점 변경**: 
+     - 공동체역량, 학업역량, 전공적합성 각각의 등급별 점수와 평가자 인원이 변경되었습니다.
+2. **재직자전형**:
+   - **제출서류 추가**: 지원자격서류 중 4대 보험 미가입/창업 및 자영업자의 경우, 소득금액증명원 또는 사업자등록증명원을 제출하도록 변경되었습니다.
+3. **나군 학생부교과(농어촌학생전형) - 정원외**:
+   - **최종 등록자 추가제출서류**: 6년 과정 지원자의 경우, 고교 졸업증명서와 부모의 주민등록초본을 제출하도록 변경되었습니다.
+이러한 변화는 각 전형별로 평가 기준과 절차에 영향을 미칠 수 있으므로, 정확한 정보를 얻기 위해서는 공식 입학처 웹사이트나 관련 안내서를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.1829036914264187</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 
+이 정보는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다:
+전형요소 반영비율에서:
+- 전형명: 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과
+- 모집인원: 11
+- 전형요소 반영비율(%)의 수능: 30%
+- 전형요소 반영비율(%)의 실기: 70%
+따라서 가군 실기/실적 전형에서 실기는 총 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.1580420425257732</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业共同构成了新的Life Fusion Department。</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.6862714908904284</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+이 두 학과 모두 실기고사가 필수적으로 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.4032890755172336</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 가군 실기/실적(일반학생전형)에 해당합니다.
+추가 정보:
+- 모집 인원: 11명 (레저스포츠학과 + 태권도학과)
+- 전형요소 반영비율: 
+  - 학생부 교과: 0%
+  - 출결: 0%
+  - 서류: 0%
+  - 면접: 0%
+  - 실기: 70%
+  - 수능: 30%
+이 정보를 바탕으로 지원 계획을 세울 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.187356544213496</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항에 따르면, 동의대학교의 라이프융합학부는 신설된 학과로 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 동의대 라이프융합학부에서는 스타트업 창업 투자와 관련된 전공, 뷰티 산업 및 비즈니스 분야 전공, 그리고 일상 생활 문화와 관련된 전공 등을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.366983698491548</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특수목적고등학교 중 과학고, 국제고, 외국어고는 모두 지원 자격이 있습니다. 예술고와 체육고는 지원 자격에서 제외되지만, 마이스터고는 지원이 가능합니다.
+따라서, 특수목적고등학교 학생으로서 과학고, 국제고, 외국어고를 졸업한 경우 또는 마이스터고를 졸업한 경우에는 동의대학교 일반학생전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3662317113874207</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 비교해야 합니다. 주어진 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **상경대학**의 학과 중에서:
+   - 경영정보학과: 40명
+   - e비즈니스학과: 30명
+   - 국제관광경영학과 - 교직: 60명
+   - 호텔·컨벤션경영학과 - 교직: 60명
+   - 외식경영학과 - 교직: 45명
+2. **인문사회과학대학**의 학과 중에서:
+   - 사회복지학과: 60명
+   - 행정학과: 45명
+   - 법학과: 70명 (가군 일반학생 제외)
+   - 경찰행정학과: 70명 (가군 일반학생 제외)
+   - 소방방재행정학과: 50명
+3. **공과대학**의 학과 중에서:
+   - 응용화학과: 22명
+   - 의생명공학과: 20명
+   - 식품공학과: 20명
+   - 산업경영빅데이터공학과: 45명
+4. **ICT융합공과대학**의 학과 중에서:
+   - 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학): 45명
+이 중에서 가장 많은 정원을 확보하고 있는 학과는 **법학과**와 **경찰행정학과**입니다. 각각 70명씩 모집되며, 이는 나군 일반학생 전형에서 가장 큰 규모의 모집인원을 보여줍니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **법학과**와 **경찰행정학과**로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.08362654320987656</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是特教高中学生，可以申请동义大学的学生部课程（农村学生选拔）。
+根据提供的信息，在“나군 학생부교과(농어촌학생전형) - 정원외 지원자격”部分提到：
+- 特殊目的高中（包括科学高中、国际高中和外语高中）是可以申请的。
+- 艺术高中和体育高中是不可以申请的。
+因此，作为特殊目的高中学生，你是可以申请东义大学的学生部课程（农村学生选拔）的。但请注意，艺术高中和体育高中的学生不能申请此项目。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.2243909744408946</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 수능(일반학생전형) 최종등록자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이 중에서 가장 중요한 것은 **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**의 평균 점수가 **317.87**이라는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.08897392620183914</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 수능 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2725290697674419</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ippyeongsi.deu.ac.kr 웹사이트를 참조해보시는 것이 가장 정확한 정보를 얻을 수 있는 방법일 것입니다. 일반적으로 대학별로 합격자 발표 일정이 다소 차이가 있으므로, 해당 사이트에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.06276150627615062</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일과 17일에 각각 &lt;가&gt;군 실기고사와 &lt;나&gt;군 실기고사가 있습니다. 이때 면접이 함께 진행될 가능성이 있으므로, 해당 날짜를 참고하시면 좋을 것 같습니다.
+만약 면접 일정이 따로 정해져 있다면, 입학안내 홈페이지에서 공지된 대기실 및 입실 시간 안내를 확인하시거나, 본문의 "비고" 항목을 참조하여 자세한 정보를 얻으시는 것이 좋습니다. 
+입학관리팀이나 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)에서도 추가적인 정보를 찾으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.05699481865284975</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과의 최저학력 기준 정보는 제공되지 않았습니다. 일반적으로 한의예과의 경우 고등학교 졸업 자격이 필요하며, 일부 대학에서는 특정 과목의 성적 또는 등급을 요구할 수 있습니다.
+하지만, 2024학년도에 대한 정확한 최저학력 기준은 해당 대학의 공식 입시 안내를 확인하는 것이 가장 정확합니다. 일반적인 요구 사항을 고려하면:
+1. **고등학교 졸업 자격**: 대부분의 경우, 고등학교 졸업 자격이 필요합니다.
+2. **수능 최저 기준**: 일부 대학에서는 수능 최저 기준을 설정할 수 있습니다. 이는 특정 과목(일반적으로 국어, 수학, 영어 등)의 최소 점수를 요구할 수 있습니다.
+3. **특정 과목 성적**: 한의예과는 의학 관련 지식이 필요하기 때문에, 생물학이나 화학 등의 과목에서 특정한 성적을 요구할 수도 있습니다.
+4. **추천서나 면접**: 일부 대학에서는 추천서 또는 면접을 통과해야 하는 경우도 있습니다.
+따라서, 가장 정확하고 최신 정보를 얻기 위해서는 해당 대학의 공식 입시 안내 웹사이트나 입학처와 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.02580170950533462</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 다음과 같은 전형별로 수능 최저학력 기준이 없습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+   - 모집 인원: 273
+   - 수능최저기준: 없음
+2. 나군 수능(일반학생전형) - 전 모집단위 (한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외)
+   - 모집 인원: 401
+   - 수능최저기준: 없음
+3. 다군 수능(일반학생전형) 
+   - 모집 인원: 180
+   - 수능최저기준: 없음
+4. 가군 실기/실적(일반학생전형) - 레저스포츠학과, 태권도학과
+   - 모집 인원: 11
+   - 수능최저기준: 없음
+5. 나군 실기/실적(일반학생전형) - 디자인조형학과, 체육학과
+   - 모집 인원: 24
+   - 수능최저기준: 없음
+6. 다군 실기/실적(일반학생전형) - 경기지도학과
+   - 모집 인원: 7
+   - 수능최저기준: 없음
+따라서, 제시된 정보에 따르면 대부분의 전형에서 수능 최저학력 기준이 없습니다. 하지만 특정 전형이나 학과에서는 수능 최저학력 기준을 설정할 수도 있으므로, 정확한 정보를 얻기 위해서는 해당 대학의 공식 입학 안내서나 홈페이지를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0253674611331343</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **3차 이후 충원 합격자 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+각 차수별로 합격자는 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행으로, 등록금 고지서에 기재된 정보를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.3544674965421853</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+따라서 추가합격자 발표는 2월 14일과 15일에 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.3856334910728081</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 단과대학이나 모집단위의 추가 모집 여부를 확인하기 어렵습니다. 추가모집 관련 정보는 일반적으로 각 대학의 입학처 웹사이트에서 공식 발표됩니다.
+따라서, "https://ipsi.deu.ac.kr/main.do" 링크에 접속하여 최신 정보를 확인하시거나, 해당 대학의 입학처로 문의하시는 것이 가장 정확할 것입니다. 추가모집 여부와 관련된 자세한 내용은 공식 웹사이트나 입학처에서 제공하는 안내서 등을 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1278973966408688</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 성인 학습자를 위한 특별한 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체 소속 직원, 상시근로자 5인 이상 사업체, 4대 보험 가입 사업체 (창업자 포함)
+   - 재직기간: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상 필요
+2. 전형 요소 및 비율:
+   - 서류 평가: 70%
+   - 면접 평가: 30%
+3. 제출서류:
+   - 고교 졸업(예정)자: 고교 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서 사본, 검정고시 성적증명서 (학교생활기록부 대체 가능)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 공증받은 외국고교 성적증명서 (외국어로 작성된 경우 원본과 번역본 필요)
+4. 서류 평가 영역 및 배점:
+   - 공동체역량: 1등급 140점, 2등급 129.5점 등
+   - 학업역량: 1등급 280점, 2등급 259점 등
+   - 전공적합성: 1등급 280점, 2등급 259점 등
+5. 면접 평가 영역 및 배점:
+   - 학업역량: 문제해결능력 기준으로 180점 등
+   - 전공적합성: 진로정보 탐색능력 기준으로 120점 등
+6. 동점자 처리기준:
+   - 면접고사 성적 상위자 우선
+   - 서류평가 공동체역량 영역 성적 상위자 우선
+   - 서류평가 전공적합성 영역 성적 상위자 우선
+   - 교과 성적 상위자 우선
+이러한 내용을 참고하시면 평생학습자전형에 대한 이해가 향상될 것입니다. 자세한 사항은 대학 입시 홈페이지나 관계부처 웹사이트를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.2632140875503595</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.07968535813572132</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>題目中的信息似乎有些混乱，没有直接提到实考（實技/實績）的考试地点。不过根据一般的大学入学考试流程，实考（實技/實績）通常会在各个大学或指定考场进行。
+如果要具体回答您的问题：
+对于“나군 수능(일반학생전형), 실기/실적(일반학생전형)”这类招生方式，实考（實技/實績）考试地点通常是：
+1. 各个大学的校园内
+2. 指定的考场
+具体的考试地点会在考生报名后由学校或教育部门通知。通常会通过学校的官方网站、邮件或者短信等方式告知考生详细的考试安排和地点。
+建议您查看目标大学的官方招生信息页面，或者直接联系招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.05333333333333333</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 체육학과에 대한 실기고사 관련 내용은 명시되어 있지 않습니다. 하지만 일반적으로 실기고사는 해당 학과의 특성에 따라 특정 시설이나 장소에서 진행됩니다.
+체육학과의 경우, 실기고사는 대개 스포츠관, 체육실, 운동장 등에서 이루어질 가능성이 높습니다. 정확한 실기고사 장소는 해당 대학 입학처나 학과 홈페이지를 통해 공지되므로, 최신 정보를 확인하는 것이 좋겠습니다.
+만약 추가적인 정보가 필요하다면, 다음과 같은 방법을 사용해보세요:
+1. 대학의 공식 웹사이트를 방문하여 입학 안내 섹션을 확인합니다.
+2. 학과 홈페이지 또는 실기고사 관련 게시물을 찾아봅니다.
+3. 입학처나 학과 사무실에 직접 문의합니다.
+이런 방법들을 통해 정확한 실기고사 장소와 기타 세부 정보를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.04815533980582525</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>一般来说，学校会在发布补招合格名单后通过电话通知被录取的学生。根据提供的信息，在"전형일정"（招生日程）部分中提到：
+- "충원 합격자 3차 이후 (개별 전화 통보) 발표"：2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+- "충원 합격자 3차 이후 (개별 전电话通知被录取的学生。
+具体来说，如果在补招第三轮（2024年2月15日至20日）之后公布合格名单，学校会通过个别电话通知的方式进行通知。所以您需要保持手机畅通，以便接收学校的来电通知。
+如果您有其他问题或需要进一步确认，请访问学校官网 https://ipsi.deu.ac.kr/main.do 或联系招生办公室获取最新信息。</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.2541035353535354</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 2023학년도의 대략적인 추세를 예측할 수 있습니다.
+2024학년도 경찰행정학과의 모집 정보는 다음과 같습니다:
+- **모집 인원**: 7명
+- **지원 인원**: 29명
+- **경쟁률**: 4.14
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과가 매우 유사했을 가능성이 높습니다. 지원자들이 많았음에도 불구하고 모집 인원은 적었기 때문에 경쟁률이 높았던 것으로 추정됩니다.
+더 정확한 정보를 얻으려면, 해당 대학의 입학처 웹사이트나 공식 안내서를 참조하거나 직접 문의하는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1303234278824555</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 일부 전형에서는 수능 응시 여부와 관계없이 지원이 가능합니다. 예를 들어, 학생부종합 평가 등은 수능을 응시하지 않아도 지원할 수 있습니다.
+특히 주요 변경사항 중에 다음과 같은 내용이 포함되어 있습니다:
+- **학생부종합(평생학습자전형/성인학습자전형/재직자전형)**: 이 전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 하며, 수능 응시 여부와 관계없이 지원이 가능합니다.
+따라서 수능을 응시하지 않아도 해당 전형에서는 지원할 수 있습니다. 하지만 다른 전형들은 수능 점수를 반영하기 때문에 수능 응시가 필요하거나 유리한 경우가 많습니다. 자세한 내용은 입학처 홈페이지나 공지사항을 확인하시거나 직접 문의하시는 것이 좋겠습니다.
+[입학처 홈페이지 링크](https://ipsi.deu.ac.kr/main.do)를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.04172398903427292</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년 이상 경과한 경우 정시모집의 대상에서 제외될 가능성이 높습니다. 대부분의 대학은 고등학교 졸업 후 3-5년 이내에 지원할 것을 권장합니다.
+하지만, 일부 특별한 전형이 있을 수 있습니다:
+1. **평생학습자전형**: 이는 일반적으로 고등학교 졸업 후 6년 이상 경과한 성인 학습자를 대상으로 합니다. 이 전형은 종종 평생교육이나 직업훈련을 통해 취득한 경험을 인정합니다.
+2. **성인학습자전형**: 일부 대학에서는 고등학교 졸업 후 6년 이상 경과한 성인 학습자를 대상으로 하는 전형이 있습니다.
+3. **재직자전형**: 직장에서의 경력이나 교육을 통해 취득한 경험을 인정하는 전형입니다.
+4. **조기취업형 계약학과전형**: 일부 특수한 분야에서는 재직 중인 성인 학습자를 대상으로 하는 전형이 있습니다.
+따라서, 정확한 지원 가능 여부를 확인하려면 다음과 같은 과정을 거치는 것이 좋습니다:
+1. **대입 홈페이지 확인**: 동의대학교의 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 최신 정보를 확인하세요.
+2. **전형 안내서 검토**: 각 전형별 지원 자격과 조건을 철저히 검토해보세요.
+3. **상담 요청**: 대학 입학처에 상담을 요청하여 직접적인 답변을 받으시는 것이 좋습니다.
+이러한 정보를 바탕으로, 10년 경과 후에도 특정 전형을 통해 지원할 수 있는 가능성은 열려 있습니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.07336521581990911</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: 동일
+이 일정은 일반적으로 정시 모집의 주요 단계를 포함하고 있으며, 각 단계별로 필요한 준비와 제출 사항을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4540038287496289</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정은 2024학년도 동의대학교 정시모집을 위한 주요 일정입니다. 각 단계별로 날짜와 내용이 명확하게 제공되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.3058858928620466</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **나군 학생부교과(농어촌학생전형)**
+2. **나군 학생부교과(평생학습자전형)**
+3. **나군 학생부종합(성인학습자(정원내)전형)**
+4. **나군 학생부종합(성인학습자(정원외)전형)**
+5. **나군 학생부종합(재직자전형)**
+6. **나군 학생부종합(조기취업형계약학과전형)**
+이러한 전형들은 수능 미응시자도 지원이 가능하며, 주로 서류평가와 면접을 통해 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1128958954297935</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 이는 최초합격자(11명)와 충원 합격 (후보순위)(25명)로 이루어진 결과입니다.
+만약 전년도 데이터가 필요하다면, 해당 정보를 제공하기 위해 웹사이트 https://ipsi.deu.ac.kr/main.do 에 접속하여 확인해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.217081246675105</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。为了获取准确的信息，建议访问东义大学官网（https://ipsi.deu.ac.kr/main.do）上的招生页面或联系学校的招生办公室以获得最新的联系电话和其他重要信息。
+如果您需要进一步的帮助来找到这个信息，请告诉我。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19시부터 20일(화) 18시까지는 합격자 발표 및 등록금 납부 충원합격자 3차 이후 (개별 전화 통보) 기간입니다. 이 기간 동안 개별 전화 통보가 이루어집니다.
+만약 전화 통화가 되지 않는 경우, 다음과 같은 절차를 따르는 것이 일반적입니다:
+1. **재전화 시도**: 학교 측에서는 일정 시간 내에 다시 전화를 시도할 수 있습니다.
+2. **메시지 남기기**: 학생이 전화를 받지 못한 경우, 학교 측에서 메시지를 남길 수 있습니다.
+3. **추가 통보 방법**: 합격자 발표 및 등록금 납부 기간 내에 홈페이지를 통해 개별적으로 조회할 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+따라서 전화 통화가 되지 않더라도, 학생은 위와 같은 방법을 통해 합격 여부를 확인하고 등록 절차를 진행해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1728766725536087</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. **지원자 본인의 가족관계증명서** (1부)
+2. **지원자 본인, 부모의 주민등록초본** (각 1부, 총 3부)
+3. **중학교 학교생활기록부** (1부) - 교육기관에서 발급
+4. **고등학교 학교생활기록부** (1부) - 학생부 온라인 제공 비대상교 및 미동의자인 경우, 부모가 사망한 경우 추가 서류 필요
+특히, 부모 중 한 명이 사망하거나 이혼한 경우에는 다음과 같은 추가 서류를 제출해야 합니다:
+- **사망한 부 또는 모의 기본증명서** (1부) - '사망'이 명시되지 않은 경우 제적등본 1부를 추가로 제출
+- **친권이 있는 부 또는 모의 혼인관계증명서(상세)** (1부)
+- **본인의 기본증명서(상세)** (1부)
+이러한 서류들은 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주했음을 증명하기 위한 것입니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.4673965566029358</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이 외에 추가로 제출해야 할 서류는 없습니다.
+주의할 점은 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 하며, 지원자의 거주지와 부모의 거주지가 동일하지 않아도 된다는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.4946699999116462</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年招生中是否会取消低收入机会均等类型的提前录取（정시모집）计划。为了获取最准确的信息，建议直接访问学校官网或联系学校的招生办公室进行确认。
+您可以参考以下链接以获得更多信息：
+https://ipsi.deu.ac.kr/main.do
+如果需要更具体的答案，请直接咨询学校招生部门。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1420454545454546</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 등급점수로 표현할 때 123.5가 됩니다. 수능 최저등급 기준에서 사탐 2과목의 평균산출을 할 때, 절사 처리는 적용되지 않습니다.
+즉, 2.5등급이 나왔다면 그대로 2.5등급으로 평균을 계산하게 됩니다. 예를 들어, 두 과목 중 하나가 3등급(131)이고 다른 하나가 2.5등급(123.5)이라면, 이들의 평균은 (131 + 123.5) / 2 = 127.25로 계산됩니다.
+따라서, 2.5등급은 절사되지 않고 그대로 반영되어 평균이 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.1625887088232179</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집의 경우, 충원 합격자 발표가 3차로 이루어집니다.
+1. **1차 충원 합격자 발표**: 
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: (인터넷) 발표
+2. **1차 충원 합격자 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00~16:00
+   - 내용: (인터넷) 등록
+3. **2차 충원 합격자 발표**: 
+   - 일정: 2024. 02. 15.(목) 09:00
+   - 내용: (인터넷) 발표
+4. **2차 충원 합격자 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00~16:00
+   - 내용: (인터넷) 등록
+5. **3차 이후 충원 합격자 발표**: 
+   - 일정: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+   - 내용: (개별 전화 통보)
+6. **3차 이후 충원 합격자 등록**: 
+   - 일정: 개별 전화 통보 시 안내
+   - 내용: (개별 전화 통보)
+따라서, 정시 충원 합격자는 총 3차로 발표되며, 각 차례에 따라 등록이 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2697324976077777</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시모집에서 e비즈니스학과의 모집인원과 지원자 수, 그리고 수능 성적 분포를 고려해보겠습니다.
+e비즈니스학과에 대한 정보:
+- 모집인원: 10명
+- 지원 인원: 89명 (경쟁률 8.90)
+- 충원 합격자: 31명
+수능 성적 분석:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 308.58
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 10.96
+4.6이라는 수능 성적은 평균보다 약간 낮습니다. 하지만, 표준 편차를 고려하면 이는 중간 정도의 성적이므로, 경쟁률이 높지 않은 일부 학과에서는 충분히 추가합격 가능성이 있습니다.
+추가적으로 고려해야 할 요인:
+1. **개별 전형 특성**: e비즈니스학과의 경우 수능 성적 외에도 면접 등 다른 평가 요소가 포함되어 있으므로, 이 부분에서 우수한 점수를 받았다면 추가합격 가능성은 높아집니다.
+2. **경쟁률 분포**: 현재 지원자 중 4.6이라는 성적이 어느 위치에 있는지 확인해야 합니다. 평균보다 낮지만 표준 편차 내에서 상대적으로 좋은 성적이라면, 추가합격 가능성은 있습니다.
+3. **기타 요인**: 학생부, 면접 등 다른 평가 항목에서 우수한 점수를 받았다면 이는 추가합격에 긍정적인 영향을 미칠 수 있습니다.
+따라서 4.6이라는 성적만으로 확실하게 추가합격할 수 있다고 단정 짓기는 어렵지만, 경쟁률이 높지 않은 e비즈니스학과에서 면접 등 다른 평가 항목에서 우수한 점수를 받았다면 추가합격 가능성은 있습니다. 자세한 정보는 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+추가적으로, [입학처 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하시면 최신 정보와 더 구체적인 조언을 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2096292848860133</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합
+e비즈니스학과는 2024년 모집 인원이 95명이고, 지원 인원이 146명으로 경쟁률은 약 1.53입니다. 최초합격자의 평균 점수가 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+- 표준 편차: 9.08
+정시 등급이 5.3인 경우, 해당 등급에 따른 표준점수는 다음과 같습니다:
+- 영어 등급 5.3 → 등급점수 123 (등급별 점수 참조)
+따라서, 정시 등급 5.3의 학생이 e비즈니스학과에 최초합격 가능성은 있습니다만, 확실한 것은 아닙니다. 평균 점수가 약간 높으나, 표준 편차가 크기 때문에 경쟁률과 지원자들의 성적 분포를 고려해야 합니다.
+정확한 합격 가능성을 판단하기 위해서는:
+1. 지원자의 개인적인 성적을 확인합니다.
+2. 해당 모집단위의 최종 합격 점수를 참고합니다.
+3. 전반적인 경쟁률과 지원자들의 성적 분포를 고려합니다.
+따라서, 정시 등급 5.3의 학생이 e비즈니스학과에 최초합격 가능성은 있으나, 확실한 것은 아니며, 개인별 성적이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.1574488009044068</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个方面：
+1. **你的成绩**：你需要提供具体的高考成绩和排名。
+2. **学校的要求**：不同专业的录取标准可能有所不同。你提供的信息中没有具体提到ebiznisse학전공（假设是电子商务学）的具体要求。
+3. **竞争情况**：每个专业都有一定的招生名额，实际录取时会根据报名人数和成绩进行筛选。
+假设我们有以下信息：
+- 你的高考总分及各科分数
+- e비즈니스학전공的往年录取分数线或标准
+例如，如果e비즈니스학전공在2023年的录取线是450分，并且要求国语、数学和英语三门主课的成绩分别达到B+以上（假设学校的要求），而你的成绩如下：
+- 国语：90/100
+- 数学：85/100
+- 英语：88/100
+并且你的总分是460分，那么你有可能达到预录取标准。但是具体是否能预录取还需要参考学校的具体要求和当年的实际竞争情况。
+建议：
+1. 查看e비즈니스학전공的官方招生简章或咨询学校的招生办公室。
+2. 了解该专业的往年录取分数线及具体要求。
+3. 根据自己的成绩判断是否符合预录取条件，并做好相应的准备。
+如果你能提供更详细的信息，我可以帮你进行具体的分析。建议直接访问学校官网或者联系招生办获取最准确的信息。如果需要进一步的帮助，请告诉我更多细节。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.06648652492355826</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44 등급의 영어 점수는 대략 125점 정도로 추정됩니다. 동의대학교 간호학과의 경우, 최종등록자 분석에서 다음과 같은 정보가 있습니다:
+- 모집인원: 22명
+- 지원 인원: 145명 (경쟁률이 매우 높습니다)
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+- 영어 등급의 평균: 2.34
+이 정보를 바탕으로, 3.44 등급의 영어 점수가 상대적으로 낮은 편입니다. 그러나 간호학과는 일반적으로 높은 경쟁률을 보이는 학과로 알려져 있습니다.
+결론적으로:
+1. **경쟁률이 매우 높습니다**: 145명 중 22명만 선발하므로, 낮은 점수를 가진 지원자는 합격하기 어렵습니다.
+2. **영어 점수가 낮습니다**: 평균 영어 등급이 2.34로, 3.44는 상대적으로 높지만 여전히 낮은 편입니다.
+하지만 모든 것이 절대적이지 않으며, 다음과 같은 요소들이 합격 가능성에 영향을 미칠 수 있습니다:
+- **기타 성적**: 국어, 수학, 탐구 등 다른 과목의 성적이 높다면 이점이 있을 수 있습니다.
+- **추가 지원 자료**: 자기소개서나 추천서 등의 추가 지원 자료가 있다면 이를 활용할 수 있습니다.
+- **특기사항이나 활동 경력**: 특기사항, 프로젝트 참여 경험 등이 있다면 이를 강조할 수 있습니다.
+따라서 3.44의 영어 점수만으로는 합격하기 어렵다고 판단되지만, 모든 요소를 종합적으로 고려하여 지원하는 것이 중요합니다. 추가 정보나 자세한 조언을 원하시면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.09500961568159773</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 최종합격자들의 성적 분석을 보면, 평균적인 경쟁률이 높고 입학사정관제에서 좋은 평가를 받기 위한 다양한 요소들이 중요하게 작용합니다. 그러나 정확한 합격 가능성은 여러 변수에 따라 달라질 수 있으므로 다음과 같은 점들을 고려해보세요:
+1. **경쟁률과 지원자 수**: 2024학년도 모집에서 145명이 지원하여 경쟁률이 6.59였습니다. 이는 높은 경쟁률을 의미하며, 성적이 조금 낮더라도 입학사정관의 평가와 면접 결과 등이 합격에 큰 영향을 미칠 수 있습니다.
+2. **평균 점수**: 2024년 최종합격자들의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.63입니다. 이는 2.52보다 높습니다.
+3. **영어 등급**: 평균 영어 등급이 1.86으로 낮은 편이며, 이 역시 입학사정관의 평가에서 중요한 요소일 수 있습니다.
+4. **면접 및 서류평가**: 동의대학교는 면접과 서류평가를 통해 지원자의 전반적인 역량을 종합적으로 판단합니다. 따라서 좋은 학업태도와 열정, 그리고 적절한 준비가 필요합니다.
+5. **입학사정관의 평가**: 입학사정관은 지원자의 다양한 면면을 종합적으로 평가하므로, 창의성, 협동심, 사회참여 활동 등이 긍정적인 평가를 받으면 도움이 될 수 있습니다.
+6. **추천서 및 자기소개서**: 추천서와 자기소개서는 입학사정관에게 지원자의 진정한 모습을 보여줄 수 있는 중요한 자료입니다.
+결론적으로, 2.52라는 성적만으로는 확실하게 합격할 수 없다고 단정 짓기는 어렵습니다. 그러나 적절한 준비와 노력이 있다면, 좋은 결과를 얻을 가능성은 있습니다. 특히 면접에서 자신감 있게 자신의 경험과 열정을 표현하고, 입학사정관에게 긍정적인 인상을 줄 수 있도록 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.06228576126690193</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수지만, 간호학과에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **전형 유형**: 간호학과는 일반적으로 경쟁이 매우 치열합니다. 특히 간호학과는 실기와 면접을 포함한 다양한 평가 요소를 통해 학생들을 선발하기 때문에, GPA 외에도 다른 성적이나 평가 요소들이 중요하게 작용할 수 있습니다.
+2. **실기 및 면접**: 간호학과에서는 실기 시험과 면접을 통해 지원자의 의료 관련 지식과 역량, 그리고 의사소통 능력을 평가합니다. 따라서 GPA 외에도 이러한 요소들이 중요하게 작용할 수 있습니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구하며, 이는 지원자의 개인적 성향과 역량을 보완적으로 평가하는 데 도움이 됩니다.
+4. **경력 및 활동**: 관련 경력이나 활동 경험도 중요하게 고려됩니다. 간호학과에서는 지원자가 의료 분야에서의 경험이나 관련 활동을 통해 얻은 지식과 역량을 평가합니다.
+5. **추천서**: 일부 학교에서는 추천서를 요구하며, 이는 교사나 직장 상사로부터 받는 추천서가 있습니다.
+따라서 3.7의 GPA만으로 간호학과에 확실하게 합격할 수 있는 것은 아닙니다. 그러나 GPA 외에도 좋은 실기 성적, 면접 성적, 관련 활동 경력 등을 갖추고 있다면 합격 가능성은 높아질 것입니다.
+建议如下：
+1. **考试类型**：护理学专业通常竞争非常激烈。特别是护理学专业会通过实践测试和面试来评估学生的医疗知识、技能以及沟通能力，因此GPA之外的其他成绩或评价因素也很重要。
+2. **实践及面试**：护理学专业的实践测试和面试是评估学生是否适合该专业的关键环节。因此除了GPA外，还需要在这些方面表现出色。
+3. **推荐信和个人陈述**：一些学校会要求提交推荐信和个人陈述，这有助于从侧面了解申请者的个性和能力。
+4. **相关经验和活动**：拥有与医疗领域相关的经验或活动经历也会对申请有积极影响。护理学专业通常会考虑学生在该领域的实际工作经验或参与的相关活动。
+5. **推荐信**：一些学校要求提交推荐信，通常是来自教师或工作主管的推荐信。
+综上所述，仅凭3.7的GPA很难确保被护理学专业录取，但如果能够表现出色的实践成绩、面试表现以及相关经验等，则申请成功的可能性会大大提高。建议详细查看目标学校的招生政策和具体要求，并准备充分以提高成功率。</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.05025262379119261</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 고려해보겠습니다.
+1. **전형 유형**: 간호학과는 일반적으로 실기 위주 전형으로 운영됩니다.
+2. **학생부 교과성적 반영방법**:
+   - 8과목 중 석차등급 상위 4과목을 반영합니다 (한의예과 제외).
+   - 진로선택과목은 최대 2과목까지 반영 가능하며, 성적반영 기준이 있습니다.
+3. **성적 기준**:
+   - 2023년도에 비해 2024년에는 학생부 교과성적 반영 방식이 변경되었습니다.
+   - 2023년은 석차등급 A, B, C를 반영했지만, 2024년은 등급 기준으로 변경되었으므로 성적이 더 중요해졌습니다.
+4. **성적 분석**:
+   - 2.58의 GPA는 상대적으로 낮은 점수입니다.
+   - 간호학과는 실기 위주로 평가되므로, 수능 최저 기준이 없으나 학생부 교과 성적이 중요한 역할을 합니다.
+5. **합격 가능성**:
+   - 2024년의 경우, 학생부 교과성적 반영 방식이 더 엄격해졌습니다.
+   - 2.58의 GPA로는 상위 등급을 받기 어렵게 보입니다.
+   - 실기 성적이 높다면 합격 가능성은 조금 더 높아질 수 있지만, 여전히 낮은 점수일 가능성이 있습니다.
+6. **추천**:
+   - 다른 대학이나 전형을 고려해보는 것이 좋습니다.
+   - 실기 준비를 철저하게 하여 실기 성적을 최대한 높이는 것이 중요합니다.
+   - 추가 지원 전형(예: 특기자, 사회진로 등)도 고려해볼 수 있습니다.
+결론적으로 2.58의 GPA로는 간호학과에 정시로 합격하기 어렵다고 볼 수 있지만, 실기 성적을 최대한 높여보는 것이 중요합니다. 다른 전형이나 대학을 함께 준비하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.05532053368044256</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏工学系(游戏工程系)录取,我需要更多的信息:
+1. 您的高考成绩如何?
+2. 您是否有相关的技能或经验?
+3. 您申请的是哪个具体的课程方向?
+4. 学校的具体招生政策是什么?
+通常情况下,能否被录取取决于以下几个因素:
+- 高考分数是否达到该专业的分数线
+- 个人陈述和推荐信等补充材料的质量 
+- 是否有相关特长或经历
+建议您查看该系的官方招生简章,了解具体的录取标准。同时准备充分的申请材料,提高录取几率。
+如果您能提供更多具体信息,我可以帮您进行更详细的分析。祝您好运!</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.07590132827324478</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 상대적으로 높은 점수입니다. 게임공학과는 일반적으로 경쟁률이 높은 전형 중 하나로, 평균적인 지원자들의 수능 성적을 고려할 때, 4.16 정도의 점수는 좋은 성적이지만 여전히 경쟁력 있는 수준입니다.
+다음은 게임공학과에 대한 몇 가지 참고 정보입니다:
+1. 2023년도 게임공학과 최초합격자 지원 인원: 16명
+2. 2023년도 게임공학과 모집인원: 3명
+이전 연도의 데이터를 바탕으로 추정해보면, 4.16 정도의 수능 점수는 대략 5위권 안에 들 것으로 예상됩니다.
+추가적으로 고려해야 할 요소:
+- 경쟁률은 매년 변동되므로 정확한 예측은 어렵습니다.
+- 지원자의 수능 성적 분포와 전반적인 학생들의 성적이 중요합니다.
+- 면접 등 추가 평가 항목의 결과도 영향을 미칩니다.
+따라서, 4.16 정도의 점수로는 대략 3위권 내에 들 것으로 예상되며, 최대한 좋은 순위를 받기 위해서는 면접 준비와 서류 제출 등 전반적인 지원 과정에서 최선을 다해야 합니다.
+결론적으로, 4.16 정도의 수능 점수로 게임공학과에 추가 합격을 받을 확률은 높지만, 정확한 순위는 모릅니다. 최대한 좋은 결과를 얻기 위해 노력하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.0818696664870977</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형의 경우, 정시모집군 변경사항에 따라 경영정보학과의 학생부종합(평생학습자전형/성인학습자전형/재직자전형)이 신설되었으며, 이는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상의 성인을 대상으로 합니다.
+따라서, 정시 성적 3.75로 경영정보학과를 지원하려면 다음과 같은 절차와 자격이 필요합니다:
+1. **성인학습자전형**에 지원해야 합니다.
+2. **고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상의 성인**을 대상으로 합니다.
+정시 성적 3.75로 경영정보학과를 지원하려면, 성인학습자전형에 지원해야 합니다. 이는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상의 성인을 대상으로 합니다.
+따라서, 정시 성적 3.75로 경영정보학과를 최초 등록자로 지원할 수 있습니다. 다만, 이는 성인학습자전형에 해당하므로 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상의 성인이어야 합니다.
+만약, 현재 고교 재학 중이라면 성인학습자전형을 지원할 수 없습니다. 이 경우에는 다른 전형(예: 학생부종합 등)으로 지원해야 합니다.
+결론적으로, 정시 성적 3.75로 경영정보학과를 최초 등록자로 지원할 수 있습니다만, 이는 성인학습자전형에 해당하므로 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상의 성인이어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.05013831258644537</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要了解一些具体信息：
+1. 经营信息学专业的录取标准是什么？
+2. 最新的考试成绩（包括各科目的分数）是多少？
+3. 是否有其他加分项或特殊情况？
+不过，根据您提供的信息，我们可以做一些基本的推断。
+从您的描述来看，经营信息学专业在2024年招生时，其国语+数学+选修(2个) (含加分) 标准转换分数总和的平均值为315.78分（来自您提供的“나군 학생부종합(조기취업형계약학과전형)”部分信息）。如果您的成绩是4.2，这通常指的是标准转换后的分数。
+假设这里的4.2是指315.78分左右的水平，那么：
+- 如果您的实际成绩高于或接近这个平均值（315.78），您有可能成为最优先注册者。
+- 但是，如果您的成绩低于这个平均值，您可能需要考虑其他因素，如面试表现、推荐信等。
+为了更准确地判断是否可以成为最优先注册者，建议：
+1. 确认具体的录取分数线或标准。
+2. 考虑是否有其他加分项（如特长、社会实践经历等）。
+3. 了解学校的具体招生政策和流程。
+如果有更多具体信息，我可以提供更加精确的分析。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.03188775510204082</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급 점수 + 탐구 표준점수
+주요 성적 데이터를 보면:
+- 지원 인원: 10명
+- 경쟁률: 1.43 (약 1:1)
+- 충원 합격자 수: 7명
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 평균: 358.60
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 합의 표준 편차: 14.79
+- 영어 등급의 평균: 3.5
+이러한 데이터를 바탕으로, 정시 성적이 5.33인 경우 (영어 등급 점수가 약 80점 정도) 다음과 같은 분석을 할 수 있습니다:
+1. **평균 점수와 비교**: 지원자의 영어 등급 점수가 평균보다 높습니다.
+2. **경쟁률 및 충원 합격자 수**: 경쟁률이 낮고, 충원 합격자가 7명으로 적으므로, 성적이 좋은 학생들이 많이 지원했을 가능성이 있습니다.
+따라서, 정시 성적이 5.33인 경우에도 합격 가능성은 있지만, 확실한 것은 아닙니다. 경쟁률과 충원 합격자 수를 고려할 때, 조금 높은 점수를 기대해야 합니다. 
+**추천 조치:**
+1. **영어 실력 향상**: 영어 등급 점수가 더 높아지면 더 좋은 성적을 받을 수 있습니다.
+2. **학생부 및 면접 준비**: 학생부와 면접에서도 경쟁력을 갖추는 것이 중요합니다.
+결론적으로, 정시 성적이 5.33인 경우에도 합격 가능성은 있으나, 확실한 것은 아니므로 추가적인 준비가 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.07252495563204464</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 정시모집에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 3.37이며, 표준 편차는 0.58입니다.
+이 정보를 바탕으로 다음과 같은 결론을 내릴 수 있습니다:
+1. 성적 3.33은 평균보다 약간 낮습니다.
+2. 하지만 표준 편차가 작기 때문에, 3.33 정도의 점수는 여전히 많은 합격자들 중에서 상당한 위치를 차지할 수 있습니다.
+따라서 성적 3.33은 바이오응용공학부 최초등록자로 충분히 가능하지만, 경쟁률과 지원자의 다양성에 따라 결과는 불확실합니다. 
+추천 사항:
+1. 다른 전형(예: 학생부종합)을 함께 준비해보세요.
+2. 추가적으로 수능 공부를 하여 성적을 향상시키는 것이 좋습니다.
+3. 바이오응용공학부와 관련된 특기사항이나 활동 경력을 강조하는 것이 유리할 수 있습니다.
+결국, 최종 합격 여부는 여러 요인에 따라 결정되므로, 다양한 전략을 고려해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1911913175164058</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년도에 방사선학과를 지원하려면 몇 가지 요소들을 고려해야 합니다:
+1. **성적**: 방사선학과는 일반적으로 높은 수능 성적이 요구됩니다. 현재 제시된 성적(수능 등급 4.4)으로는 경쟁률이 매우 높을 가능성이 있습니다.
+2. **모집인원 및 지원자 수**: 방사선학과의 모집인원과 지원자의 수를 확인해야 합니다. 이 정보는 입학공고나 대학 홈페이지에서 확인할 수 있습니다.
+3. **전형방법**: 일반학생전형의 경우, 수능 성적이 주요 평가 기준이 됩니다. 방사선학과는 보통 높은 수능 점수를 요구하기 때문에, 현재의 수능 등급으로는 충분하지 않을 가능성이 큽니다.
+4. **추천서 및 자기소개서**: 일부 학과에서는 추천서나 자기소개서도 중요하게 평가할 수 있습니다. 이 부분을 잘 준비해야 합니다.
+5. **면접 성적**: 일반학생전형의 경우, 면접 점수도 중요한 요인입니다. 면접 준비를 철저히 해야 합니다.
+6. **추천 학과**: 현재의 성적으로는 방사선학과에 지원하기 어렵다고 판단됩니다. 다른 학과 중에서 자신의 적성과 능력을 고려해 보시는 것이 좋습니다.
+7. **재수 가능성**: 만약 현재의 성적이 목표 학과에 충분하지 않다면, 재수를 고려해 볼 수도 있습니다.
+추천되는 방법은:
+- 방사선학과의 모집인원 및 지원자 수를 확인합니다.
+- 다른 학과 중에서 적합한 과목을 찾아보세요. 예를 들어, 의료 관련 학과나 공학 분야 등이 있을 수 있습니다.
+- 현재 성적을 기반으로 한 면접 준비와 서류 작성에 집중하세요.
+더 자세한 정보는 대학 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.06735125798138</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률과 합격 점수를 고려해보겠습니다.
+- **모집 인원**: 5명
+- **지원 인원**: 36명
+- **경쟁률**: 7.20
+- **최종 등록자 평균 점수**: 338.76 (국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합)
+방사선학과의 최종 등록자의 평균 점수가 338.76이라는 것을 보면, 경쟁률이 높은 만큼 고득점을 요구하는 경향이 있습니다.
+당신의 점수인 2.66 (2.66 * 100 = 266)는 평균점수(338.76)에 비해 상대적으로 낮습니다. 이 점수로는 충분히 합격할 수 있는 기회가 있지만, 경쟁률이 높고 지원자가 많아서 위험성이 있습니다.
+**추천 조치:**
+1. **면접 준비**: 면접에서도 좋은 성적을 받기 위해 꼼꼼하게 준비해야 합니다.
+2. **추천서 및 서류 강화**: 추천서나 기타 서류에서 자신의 장점을 잘 표현할 수 있도록 노력하세요.
+3. **다양한 전형 시도**: 다른 학과나 전형 방식(예: 특기자전형, 실기시험 등)을 고려해 볼 수도 있습니다.
+결론적으로 266점은 위험한 점수라고 할 수 있지만, 충분히 노력하면 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.1154374160547385</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2024년도의 정확한 합격 기준 점수를 제공하기 위해서는 해당 대학과 전형별로 세부적인 정보가 필요합니다. 하지만 일반적으로 경찰행정학전공 농어촌 전형의 경우, 수능 성적 외에도 학생부 종합 평가와 면접 등이 포함되어 절대적인 합격 기준을 예측하기는 어렵습니다.
+다만, 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **수능 성적**: 3.66의 GPA는 좋은 성적이지만, 경찰행정학전공은 종종 높은 수능 점수가 요구되는 전공 중 하나입니다. 특히 경찰 관련 전공에서는 일반적으로 국어와 사회탐구 영역에서 높은 점수를 기대합니다.
+2. **학생부 종합 평가**: 학생부 교과 성적, 출결, 진로계획 등이 중요하게 평가됩니다. 3.66의 GPA는 좋은 성적이지만, 다른 요소들이 어떻게 평가되는지 확인해야 합니다.
+3. **면접 성적**: 면접에서도 경찰 관련 전공에 적합한 태도와 역량을 보여줘야 합니다. 문제 해결 능력과 진로 정보 탐색 능력을 잘 보여줄 수 있어야 합니다.
+4. **전형 특성**: 농어촌 전형은 지역적 요인과 농어촌 배경을 고려하기 때문에, 이에 대한 설명이 필요할 수 있습니다.
+5. **대학별 기준**: 각 대학의 합격 기준 점수가 다를 수 있으므로, 해당 대학의 공식 홈페이지나 입학처와 직접 문의하는 것이 가장 정확한 정보를 얻는 방법입니다.
+따라서, 현재 상황에서 3.66의 GPA로 경찰행정학전공 농어촌 전형을 지원한다면 합격 가능성은 있지만, 확실하지 않습니다. 최종 결정을 내리기 위해서는 대학 입학처와 직접 문의하거나, 해당 대학의 공식 정보를 확인하는 것이 좋습니다.
+추가적으로, 다른 전형이나 대학을 고려해보시거나, 추가적인 준비를 하는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.119701272713714</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 그러나 정시에서 붙을 수 있는 가능성이 완전히 없는 것은 아닙니다. 몇 가지 요인들을 고려해볼 필요가 있습니다:
+1. 모집단위와 전형요소: 어떤 학과와 전형방법으로 지원했는지에 따라 결과가 달라질 수 있습니다.
+2. 개인 성적: 전체적인 수능 점수와 교외 성적이 중요합니다.
+3. 동점자 처리 기준: 만약 다른 지원자가 동일한 점수를 받았다면, 어떻게 처리되는지 확인해야 합니다.
+4. 학교별 차이: 일부 대학은 25번을 포함한 상위 순위에서도 수험생들을 고려할 수 있습니다.
+5. 추가 평가 요소: 면접이나 서류평가 등 추가적인 평가 과정이 있는 경우, 개인의 특성과 능력을 종합적으로 판단할 수 있습니다.
+6. 경쟁률: 전체적인 경쟁률을 확인하고, 해당 학과의 모집인원과 지원자 수를 고려해야 합니다.
+결론적으로 25번은 매우 높은 순위이므로 확실한 보장은 없습니다만, 적절히 준비하고 노력한다면 가능성은 열려 있습니다. 정확한 확률을 예측하기 위해서는 해당 대학의 정시 모집 규칙과 동점자 처리 기준 등을 자세히 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.09155195057313391</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격 점수를 분석해보겠습니다:
+1. 2023학년도 최초합격자 통계:
+   - 모집단위: 법학과
+   - 지원 인원: 40명
+   - 경쟁률: 5.71
+   - 충원 합격 (후보순위): 13명
+   - 국어+수학+탐구(가산점 포함) 표준변환점수합 평균: 325.29
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 448.29
+2. 2023학년도 최종등록자 통계:
+   - 모집단위: 법학과
+   - 지원 인원: 51명
+   - 경쟁률: 6.71
+   - 충원 합격 (후보순위): 14명
+   - 국어+수학+탐구(가산점 포함) 표준변환점수합 평균: 328.50
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 461.79
+이 통계를 바탕으로 추론해보면:
+- 안정적인 합격을 위해서는 국어+수학+탐구(가산점 포함) 표준변환점수합 325~330점 이상, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 445~450점 정도를 받는 것이 좋을 것 같습니다.
+- 경쟁률이 높아지면 이보다 높은 점수가 필요할 수 있습니다.
+따라서 법경찰행정학부에 정시로 안정적으로 들어가려면 평균 325~330점 이상의 국어+수학+탐구(가산점 포함) 표준변환점수합과 445~450점 정도의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합을 받는 것이 바람직할 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.4111818332620397</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 보육가정상담학과의 경우, 학생부종합(평생학습자전형)으로 모집되고 있습니다. 이 전형의 경우 주요 평가 요소 중 하나인 '성적'은 학교생활기록부 성적을 반영하지만, 정확한 합격 기준 점수는 공개되지 않았습니다.
+현재 제공된 정보로는 2024학년도 동의대학교 수능(일반학생전형) 최종등록자에서 단과대학은 인문사회과학대학이며, 모집단위은 법학과이며, 모집인원은 2명이고, 지원 인원은 13명으로 경쟁률이 높지 않은 것으로 보입니다. 그러나 이는 보육가정상담학과의 경우와 다를 수 있습니다.
+5.33 등급을 가진 학생이 동의대학교 보육가정상담학과에 합격할 수 있는지는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **전반적인 지원자들의 성적 분포**: 지원자의 평균 및 최고 점수와 비교하여 5.33 등급이 어느 위치에 있는지 확인해야 합니다.
+2. **모집단위의 경쟁률**: 보육가정상담학과의 실제 모집인원과 지원 인원을 고려해야 합니다.
+3. **전형 요소의 비중**: 학생부종합 평가에서 성적 외에 공동체역량, 학업역량, 전공적합성 등 다른 요소들이 얼마나 중요한지 확인해야 합니다.
+4. **개별 지원자의 특성**: 개인적인 경험, 활동, 면접 성과 등을 고려해야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 보육가정상담학과의 2024년도 모집요강 및 실제 지원자들의 성적 분포를 확인하는 것이 필요합니다. 
+추천되는 방법은 다음과 같습니다:
+1. **동의대학교 입학처 웹사이트**를 방문하여 최신 정보를 확인하세요.
+2. **입학사정관 제출서류와 면접 내용** 등 추가적인 평가 요소에 대해 자세히 알아보세요.
+3. **전형요강과 동일한 전형을 통해 합격한 선배들의 경험담**을 참고해 보세요.
+이러한 정보를 바탕으로 더 정확한 판단을 내릴 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.09920539850654835</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격 절차는 여러 차례 진행되며 각 차례별로 일정이 정해져 있습니다. 3차 충원 합격자 발표 및 등록일정은 다음과 같습니다:
+- **발표 일시**: 2024년 2월 15일(목) 09:00
+- **등록 일시**: 2024년 2월 15일(목) 09:00 ~ 16:00
+이 정보만으로는 충분한 확신을 내기 어렵습니다. 하지만 예비 12번이라는 점에서, 이전 차례에서는 높은 순위를 차지했음을 의미합니다. 따라서 3차 충원에서도 합격 가능성은 있습니다.
+다음과 같은 요인들을 고려해볼 수 있습니다:
+1. **이전 차례 성적**: 예비 12번이라는 점에서, 이전 차례에서는 높은 순위를 차지했음을 의미합니다.
+2. **경쟁률**: 충원 합격자 발표 시점의 경쟁률을 확인해야 합니다. 경쟁률이 낮다면 합격 가능성은 높아집니다.
+3. **모집인원**: 해당 모집단위의 남은 모집 인원 수를 확인해야 합니다.
+추가적으로, 동의대학교 입학 홈페이지나 공지사항을 통해 최신 정보와 추가적인 지침을 확인하는 것이 좋습니다. 또한, 학교 관계자에게 직접 문의하거나 상담 받는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2492635549549282</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75의 수능 등급은 상당히 높은 점수입니다. 2024학년도의 경우, 각 단과대학과 모집단위별로 평균 수능 등급이 다릅니다. 유아교육학과의 경우, 지원 인원과 경쟁률을 고려할 때 상대적으로 낮은 수능 등급으로 합격하는 것이 가능하지만 여전히 높은 경쟁률을 가지고 있습니다.
+유아교육학과의 2024년도 최종등록자 정보를 보면:
+- 단과대학: 인문사회과학대학
+- 모집단위: 유아교육과
+- 지원 인원: 13명
+- 경쟁률: 3.25
+이러한 상황에서 4.75의 수능 등급은 좋은 성적입니다. 그러나 유아교육학과는 여전히 높은 경쟁률을 가지고 있으므로, 다른 요소들도 고려해야 합니다.
+다음은 몇 가지 제안입니다:
+1. **면접 준비**: 면접에서는 지원동기와 학업계획, 학업역량 등을 잘 준비해야 합니다.
+2. **서류 평가**: 서류평가에서도 좋은 성적을 받는 것이 중요합니다. 학교생활기록부와 진로 계획 등이 잘 반영되어야 합니다.
+3. **추천서 및 추천인**: 가능하다면 교사나 직장의 상사로부터 긍정적인 추천서를 받아볼 수 있습니다.
+결론적으로, 4.75의 수능 등급은 유아교육학과에 지원하는 데 도움이 될 것입니다. 그러나 경쟁률을 고려하면 여전히 어려울 수 있으므로, 다른 요소들도 잘 준비하고 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1586768219832736</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>4.16 등급은 상당히 좋은 점수입니다. 하지만, 동의대학교 보육가정상담학과의 정시 경쟁률과 수능 성적 분포를 고려해보면 다음과 같은 점들을 주목해야 합니다:
+1. **경쟁률**: 보육가정상담학과는 인기 학과로, 일반적으로 높은 경쟁률을 가지고 있습니다.
+2. **수능 성적 분포**:
+   - 4.16 등급은 상당히 좋은 수준입니다.
+   - 하지만 동의대학교 전체 수능 성적 분포를 고려하면, 이 점수가 평균 이상이지만 상위권에는 못 미칠 수도 있습니다.
+3. **추합**: 추합 점수는 국어, 영어 등급과 탐구 과목을 반영하므로, 이 부분도 중요합니다.
+   - 예를 들어, 국어와 영어가 높으면 전체적인 추합 점수가 더 좋아질 수 있습니다.
+4. **면접 및 서류 평가**: 일부 전형에서는 면접이나 서류 평가가 중요한 역할을 합니다. 이 부분에서 좋은 성적을 받는다면 합격 가능성은 높아집니다.
+5. **추천서나 특기사항**: 추천서나 자기소개서 등 개인적인 요소도 중요합니다. 잘 준비하면 추가적으로 점수를 올릴 수 있습니다.
+6. **최종 결정**:
+   - 4.16 등급만으로는 확실한 합격을 보장하기 어렵습니다.
+   - 하지만, 경쟁률이 높지 않은 경우나 다른 요소가 긍정적으로 작용한다면 합격 가능성은 있습니다.
+결론적으로, 4.16 등급은 좋은 성적입니다만, 동의대학교 보육가정상담학과의 특성과 전체적인 입시 경쟁 상황을 고려하면 추합까지 생각하면서 준비하는 것이 좋습니다. 추가적으로 면접 및 서류 평가에서 좋은 점수를 받는다면 합격 가능성은 높아질 것입니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.1047644776412613</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프거위화합학과를 정시로 지원하려는 경우, 다음과 같은 정보가 도움이 될 것입니다.
+1. **모집단위 및 모집인원**: 
+   - 단과대학: 공과대학
+   - 계열: 공학
+   - 모집단위: 소프트웨어융합학과
+   - 모집인원: 7명
+2. **전형요소 반영비율**:
+   - 수능 반영 비율: 100%
+   - 실기/실적 반영 비율: 없음 (나군 수능(일반학생전형)의 경우)
+3. **수능 반영 영역 및 가산점**:
+   - 국어, 수학, 영어 등급에 따른 점수
+   - 탐구 과목 중 2개 과목의 성적
+4. **최종등록자 통계 (예시)**:
+   - 지원 인원: 51명
+   - 경쟁률: 7.25
+   - 충원 합격 (후보순위): 11명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 325.15
+   - 영어 등급의 평균: 3.18
+이러한 통계를 바탕으로, 소프트웨어융합학과 정시로 들어가기 위해서는 대략적으로 다음과 같은 수능 점수를 받아야 할 것으로 추정할 수 있습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 325.15
+- **영어 등급의 평균**: 3.18
+따라서, 대략적으로 국어와 수학, 탐구 과목 중 2개의 평균 점수가 160점 이상이고 영어 등급이 B등급 정도를 받아야 하는 것으로 추정할 수 있습니다.
+하지만 이는 예시이며, 실제 입학 가능성을 결정하는 요인은 다양합니다. 학교생활기록부, 면접 성적, 그리고 지원자의 전반적인 역량 등을 고려해야 합니다. 따라서 최종적으로는 본인이 지원한 모집단위의 정확한 평균 점수와 동점자 처리 기준을 확인하는 것이 좋습니다.
+추가 정보나 자세한 문의사항이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 입학처에 직접 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.02564692351926395</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>대학교에서 면접 및 서류 평가를 진행할 때, 일반적으로 면접과 서류 평가의 비중은 다음과 같습니다:
+1. **면접 점수**: 면접에서는 지원자의 문제 해결 능력, 진로 정보 탐색 능력 등을 평가합니다. 이 부분은 정성적인 평가를 통해 이루어지며, 지원자의 답변 내용과 태도 등을 종합적으로 판단합니다.
+2. **서류 점수**: 서류 평가는 학업역량, 전공적합성 등 다양한 요소를 종합적으로 평가합니다. 이 부분은 정량적인 점수로 평가되며, 지원자의 학교생활기록부, 면접 질문 답변 내용 등을 기반으로 합니다.
+**소프트웨어 융합과의 특징:**
+- **면접**: 면접에서는 주로 지원동기와 학업계획, 학업역량 및 전공적합성에 대한 공통문항을 통해 평가합니다. 이때 지원자의 답변 내용이 중요하므로, 실제 경험과 노력을 중심으로 답변하는 것이 좋습니다.
+- **서류**: 서류에서는 학교생활기록부를 주요 참고 자료로 사용하며, 면접 질문에 대한 답변 내용도 함께 검토됩니다.
+**준비 방법:**
+1. **면접 준비**: 지원동기와 학업계획을 구체적으로 작성하고, 학업역량과 전공적합성에 대해 잘 알고 있어야 합니다.
+2. **서류 준비**: 
+   - **학교생활기록부**: 정확하게 작성되어 있어야 하며, 학교폭력 등 부정적인 사항이 없어야 합니다.
+   - **면접 질문 답변 내용**: 서류 평가 시 면접 질문에 대한 답변 내용을 참고하기 때문에, 답변 내용도 철저히 준비해야 합니다.
+**추천 준비 방법:**
+1. **학업역량 및 전공적합성**: 실제 경험과 노력을 중심으로 작성한 학교생활기록부를 체크하고, 면접 질문에 대한 답변을 구체적으로 작성합니다.
+2. **면접 답변 내용**: 실제 경험과 노력을 중심으로 답변하는 것이 중요하므로, 구체적인 사례와 함께 답변을 준비합니다.
+따라서, 서류 평가와 면접 평가는 모두 중요한 요소로, 각각의 점수를 균형 있게 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.04441282673133926</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024年东国大学软件工程学部的录取标准**：根据提供的信息，我们可以看到该专业的录取情况。例如：
+   - 国语 + 数学 + 探究(2个) (含加分) 标准转换分数总和的平均值为318.57。
+   - 英语等级的平均分为4.06。
+2. **你的成绩**：国语 + 数学 + 探究(2个) (含加分) 标准转换分数总和为4.08，英语等级未提供具体数值但假设不低于平均水平（4.06）。
+3. **竞争情况**：
+   - 该专业有15名学生被录取。
+   - 支持人数为72人。
+   - 竞争比约为4.8：1。
+根据这些信息，你的成绩在平均值之上，并且接近最高分。然而，由于竞争比例较高（约4.8:1），你仍然需要考虑以下几个因素：
+- **英语等级**：虽然你的国语 + 数学 + 探究(2个) (含加分) 标准转换分数总和很高，但英语等级也需要达到一定水平。
+- **其他学生的表现**：其他学生的成绩分布情况也会影响录取结果。
+综合来看，你的成绩在平均值之上，并且接近最高分，因此理论上是有可能被录取的。但是，由于竞争激烈，你需要确保你的英语等级不低于平均水平（4.06），并且整体表现优于大多数申请者才能提高录取几率。
+建议你仔细检查自己的其他科目和英语等级是否达到或超过平均水平，并做好充分准备以应对可能的竞争。</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.03094606542882405</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과의 경우, 정원 외 모집인원은 7명이며, 지원 인원이 30명으로 높은 경쟁률을 보이고 있습니다. 평균적으로 서류평가와 면접평가를 종합해보면 다음과 같은 점수대가 필요할 것으로 예상됩니다:
+1. **서류평가 영역**:
+   - 공동체역량: 84점 (5등급)
+   - 학업역량: 168점 (5등급)
+   - 전공적합성: 168점 (5등급)
+2. **면접평가 영역**:
+   - 학업역량: 139.5점 (4등급)
+   - 전공적합성: 84점 (5등급)
+따라서, 평균적으로 5등급을 받는 것이 필요할 것으로 보입니다. 하지만 이는 단순히 점수만으로 판단하는 것이 아니라, 서류와 면접 모두에서 꾸준한 노력과 적절한 답변이 요구됩니다.
+**추천 조언:**
+- **서류 준비**: 학업역량과 전공적합성에 대한 구체적인 사례를 잘 준비하고, 공동체역량에서도 협력과 배려의 모습을 보여주어야 합니다.
+- **면접 준비**: 지원동기와 학업계획, 학업역량 및 전공적합성에 대해 명확하게 답변할 수 있도록 준비해야 합니다.
+이러한 점들을 고려하면 5등급으로는 충분히 경쟁력을 갖추고 있을 것으로 보입니다. 하지만 최종 결정은 입학사정관의 평가 결과에 따라 달라질 수 있으므로, 철저한 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1099140955083332</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급 점수는 상당히 좋은 점수입니다. 하지만, 정시 성적만으로 결정되는 것은 아닙니다. 여러 요인들이 고려됩니다:
+1. **전체 경쟁률**: 신소재공학과의 경쟁률을 확인해야 합니다. 2024년도에 지원한 경우, 경쟁률이 높았다면 더 높은 점수를 요구할 수 있습니다.
+2. **평균 성적**: 제공된 데이터에서 2024년 신소재공학과의 지원자들의 평균 국어 + 수학 + 탐구(2개) 표준 변환 점수 합은 약 271.64였습니다. 이보다 낮다면 경쟁이 더 치열할 것입니다.
+3. **영어 등급**: 제공된 데이터에서 신소재공학과의 영어 등급 평균은 5.06였습니다. 4.28은 이보다 약간 낮지만, 여전히 좋은 점수입니다.
+4. **모집인원 및 지원자 수**: 모집인원이 56명이고 지원자가 81명이라는 데이터가 있습니다. 이는 경쟁률이 높을 가능성이 있으므로 더 높은 점수를 요구할 수 있습니다.
+5. **전형방법**: 동의대학교의 전형 방법과 반영 비율도 중요합니다. 예를 들어, 수능 성적이 25%씩 반영되는 경우, 국어, 수학, 영어 등급, 탐구 과목 등이 모두 고려됩니다.
+6. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서 등의 서류평가가 포함될 수 있으므로, 이 부분도 잘 준비해야 합니다.
+결론적으로, 4.28의 영어 등급 점수는 좋은 성적입니다만, 경쟁률과 평균 성적이 높은 상황에서는 더 높은 점수를 요구할 가능성이 있습니다. 따라서, 최선을 다해 준비하고, 추가적인 지원 자격이나 특기사항 등을 잘 활용하는 것이 중요합니다.
+추가적으로, 동의대학교의 공식 웹사이트나 입학처에 문의하여 가장 정확한 정보를 얻는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1215830917047718</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능(일반학생전형)에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 주요 평가 요인은 다음과 같습니다:
+1. **수능 성적**: 수능 성적이 가장 중요한 평가 기준입니다.
+   - 국어, 수학, 영어 등급 점수
+   - 탐구 과목의 표준점수
+2. **학생부 교과성적**: 학교에서 제공하는 학생부 교과성적을 통해 학업 성취도를 평가합니다.
+3. **출결**: 출석률 등을 고려할 수 있습니다 (일부 모집단위에서는 반영).
+4. **면접**: 일부 모집단위에서는 면접을 실시하여 지원자의 학업역량과 전공적합성을 평가할 수 있습니다.
+5. **서류평가**:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+자기소개서는 이들 중 일부를 보완적으로 지원하는 역할을 할 수 있지만, 필수 항목은 아닙니다. 자기소개서가 필요하지 않은 경우에도 충분한 성적과 서류를 준비하여 지원하시면 됩니다.
+만약 자기소개서를 작성하려는 경우, 지원 동기와 학업 계획, 그리고 자신의 장점 등을 간결하게 표현하는 것이 좋습니다. 하지만 이 부분이 필수적인 것은 아니므로, 수능 성적과 학생부 성적이 충분히 좋은 상태라면 자기소개서를 작성하지 않아도 됩니다.
+자세한 내용은 [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)를 참고하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.01626016260162602</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 점수입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 전형방법:
+   - 인문사회과학대학, 상경대학 등에서 일반학생전형으로 지원하셨다면, 수능 4개 영역(국어, 수학, 영어, 탐구)의 표준점수 합산 점수가 중요합니다.
+   - 현재 평균점수가 370-450 사이인 모집단위들도 있습니다.
+2. 경쟁률:
+   - 각 모집단위별로 다른 경쟁률이 있으므로, 해당 모집단위의 경쟁률을 확인해야 합니다.
+3. 지원자들의 성적 분포:
+   - 현재 지원자의 수능 점수 분포를 파악하여 자신의 위치를 판단해야 합니다.
+4. 추가모집의 규모와 조건:
+   - 추가모집이 진행되는 모집단위와 그 조건을 확인해야 합니다.
+   - 일부 학과에서는 추가모집에서 낮은 점수도 받아들일 수 있습니다.
+5. 기타 평가 요소:
+   - 학생부종합, 면접 등 다른 평가 항목의 성적도 고려됩니다.
+추천 사항:
+1. 동의대학교 입학처 웹사이트를 확인하여 추가모집 정보를 확인하세요.
+2. 해당 모집단위의 추가모집 조건을 파악하고 지원 가능성을 판단하세요.
+3. 현재 지원자의 점수 분포와 경쟁률을 분석하여 결정을 내리세요.
+4.5라는 점수는 좋은 성적입니다만, 최종 결정은 여러 요소를 종합적으로 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.1813365479512297</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과를 모집하며, 해당 학과의 경쟁률과 최종합격者的：那么，东义大学的新材料学院和分子纳米学院在2024年招生时，达到多少等级就能被录取呢？
+根据提供的信息，新材料学院（신소재공학과）和分 子纳米学院（고분자나노공학과）属于理工科学院系。从您给出的数据来看，这些专业的竞争情况如下：
+- 最终注册者中，国语+数学+两门选修科目的标准转换分数总平均值为271.64。
+- 标准差为19.52。
+- 英语等级的平均分为5.06。
+- 4个科目等级的标准差为0.49。
+- 国语+数学+两门选修科目的标准转换分数总平均值为378.15。
+- 标准差为21.81。
+这些数据表明，对于新材料学院和分子纳米学院来说，国语、数学以及两门选修科目的成绩是主要考量因素。具体到等级的话：
+- 国语+数学+两门选修科目的标准转换分数总平均值为378.15。
+- 标准差为21.81。
+这意味着如果学生的国语+数学+两门选修科目的标准转换分数总和达到或超过378.15，那么在英语等级为4级左右的情况下，有很大的机会被录取。当然，这只是一个大致的估计，具体还需要结合个人的具体情况和其他因素来综合判断。
+建议您参考这些数据，并结合自己的实际情况进行准备。如果有疑问，可以访问东义大学官网（https://ipsi.deu.ac.kr/main.do）获取更详细的信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.04016064257028112</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높았다면, 이는 매우 가까운 범위 내에서 일어날 수 있는 일이므로 가능성이 있습니다. 그러나 정확한 예측은 어렵습니다.
+다음은 고려해야 할 몇 가지 요소입니다:
+1. 표준점수 변동: 작년과 올해의 표준점수가 약간 다르게 환산될 수도 있습니다.
+2. 지원자 수 변화: 지원자가 늘어나면 경쟁률이 높아지고 평균 점수가 상승할 수 있습니다.
+3. 모집인원 및 지원 인원 비율: 이 비율이 변동되면 결과가 달라질 수 있습니다.
+4. 입학사정관의 판단: 서류평가와 면접 등에서 우수한 학생들이 선발될 경우 평균 점수가 상승할 수 있습니다.
+5. 전형별 성적 반영 비율: 각 전형별로 성적이 다르게 반영되므로 전체적인 결과가 달라질 수 있습니다.
+6. 입학사정관의 주관성: 입학사정관들이 평균 점수를 결정할 때 개인적인 판단이 영향을 미칠 수 있습니다.
+결론적으로, 작년보다 약간 높은 점수가 나올 가능성이 있지만 확실한 예측은 어렵습니다. 최종 결과는 여러 요인에 의해 결정되므로 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.1027700216270581</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2로 변환되면, 신소재공학과의 정시 모집단위에 합격 가능성은 낮지만 아직 불가능한 것은 아닙니다. 신소재공학과의 수능 반영 비율을 확인해야 합니다.
+신소재공학과는 전형요소 반영비율이 다음과 같습니다:
+- 국어: 25%
+- 수학: 25%
+- 영어: 25%
+- 탐구: 25%
+수능 성적은 합계 점수가 중요합니다. 평균 등급으로 변환된 성적이 4.1~4.2라면, 수능 점수는 상대적으로 높아야 합니다.
+다음은 몇 가지 고려사항입니다:
+1. **수능 점수**: 현재의 국어, 수학, 영어, 탐구 등급을 기반으로 수능 점수가 어느 정도인지 확인해야 합니다.
+2. **경쟁률**: 신소재공학과의 경쟁률은 높으므로, 평균 이상의 수능 점수를 가지고 있어야 합니다.
+3. **전형별 특성**: 일반학생전형은 전반적인 성적을 고려하므로, 수능 점수가 중요합니다.
+예를 들어:
+- 국어 4등급, 수학 4등급, 영어 4등급, 탐구 4등급이면 합계는 약 16점 정도 됩니다.
+- 이 경우, 수능 점수는 상대적으로 높아야 합니다.
+따라서, 현재의 성적만으로는 확실한 합격을 보장할 수 없습니다. 하지만 수능 점수가 충분히 높다면, 합격 가능성은 있습니다. 
+추가적인 정보를 제공해주시면 더 구체적인 조언을 드릴 수 있을 것 같습니다. 필요하다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.1811232593279417</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형에 대한 최초합격자와 최종등록자의 성적을 참고하겠습니다.
+### 최초합격자 성적 (인공지능학과)
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 301.87
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 12.38
+- **영어 등급의 평균**: 4.13
+- **영어 등급의 표준 편차**: 0.71
+- **수능 4개 영역 등급의 평균**: 4.98
+- **수능 4개 영역 등급의 표준 편차**: 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 415.80
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 10.49
+### 최종등록자 성적 (인공지능학과)
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 284.86
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 24.99
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 1.01
+- **수능 4개 영역 등급의 평균**: 5.41
+- **수능 4개 영역 등급의 표준 편차**: 0.65
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 395.58
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 29.91
+### 참고사항:
+- **전형요소 반영비율**은 수능이 100%로, 실기가 없습니다.
+- **동점자 처리기준**은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수 상위자입니다.
+### 결론:
+인공지능학과는 경쟁률이 높은 학과로, 평균적으로 국어와 수학 성적이 높은 편이며, 특히 수능 영어 등급이 중요합니다. 최소한의 기준을 충족하는 성적은 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 301.87 이상
+- **영어 등급**: 4.5 이상
+이러한 성적이 기대치에 부합한다면, 최초합격 가능성은 높아질 것입니다. 하지만 경쟁률이 높기 때문에 더 높은 점수를 목표로 하시는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.1881285506966552</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급으로 동의대학교에 지원할 때, 어떤 학과에서 충원될 가능성이 있는지 판단하기 위해서는 해당 학과별로 모집인원, 경쟁률, 평균 등급 등을 고려해야 합니다.
+다음은 동의대학교 각 학과의 예시 데이터입니다:
+1. **한의예과 (수학&lt;미적분/기하&gt;):**
+   - 모집 인원: 11
+   - 지원 인원: 88
+   - 충원 합격 (후보순위): 12
+   - 평균 등급: 1.21
+2. **한의예과 (수학&lt;확률과통계&gt;):**
+   - 모집 인원: 3
+   - 지원 인원: 21
+   - 충원 합격 (후보순위): 0
+   - 평균 등급: 1.20
+3. **공과대학의 기계공학, 로봇자동화공학, 자동차공학:**
+   - 모집 인원: 77
+   - 지원 인원: 67
+   - 충원 합격 (후보순위): 0
+   - 평균 등급: 6.30
+4. **공과대학의 조선해양공학:**
+   - 모집 인원: 12
+   - 지원 인원: 10
+   - 충원 합격 (후보순위): 0
+   - 평균 등급: 6.16
+5. **공과대학의 신소재공학, 분자나노공학:**
+   - 모집 인원: 56
+   - 지원 인원: 81
+   - 충원 합격 (후보순위): 25
+   - 평균 등급: 5.78
+6. **인문사회과학대학의 법학과:**
+   - 모집 인원: 7
+   - 지원 인원: 40
+   - 충원 합격 (후보순위): 13
+   - 평균 등급: 4.27
+이 데이터를 바탕으로, 5.27의 수능 등급으로는 다음과 같은 학과에서 충원될 가능성이 높습니다:
+- **한의예과 (수학&lt;미적분/기하&gt;):** 평균 등급이 1.21로 매우 낮아서, 5.27은 충분히 충원될 수 있는 성적입니다.
+- **한의예과 (수학&lt;확률과통계&gt;):** 이 경우에도 가능성이 있지만 경쟁률이 높아 확실성은 낮습니다.
+다른 공과대학 학과나 인문사회과학 대학의 법학과 등에서는 5.27의 수능 등급으로는 충원될 가능성은 매우 낮습니다.
+결론적으로, 5.27의 수능 등급으로는 한의예과 (수학&lt;미적분/기하&gt;)에서 충원될 가능성이 높지만, 다른 학과에서는 경쟁률이 높아서 충원 가능성은 낮습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.2855740457643809</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급은 상당히 높은 점수입니다. 이 점수를 가지고 소프테이션공학부에 지원하는 것은 가능성이 있지만, 확실한 것은 아닙니다.
+소프트웨어공학부는 보통 고등학교 교과 성적을 중요하게 평가합니다. 4.2라는 수능 등급은 대체로 좋은 점수지만, 소프트웨어공학부의 경우 특정 과목(예: 수학)에 대한 강한 요구사항이 있을 수 있습니다.
+다음은 고려해볼 만한 사항들입니다:
+1. **교과 성적**: 4.2 등급을 가지고 있다면, 대체로 좋은 교과 성적이겠지만, 소프트웨어공학부는 수학 등 특정 과목에 대한 강한 요구사항이 있을 수 있습니다.
+2. **수능 반영 영역**: 동의대학교에서는 수능 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%를 반영합니다. 수능 등급이 높다면 이 부분에서 유리할 것입니다.
+3. **면접 및 서류 평가**: 소프트웨어공학부는 종종 면접과 서류 평가를 통해 지원자의 전공 적합성을 판단하기도 합니다. 좋은 학업역량과 전공적합성의 증거를 준비하는 것이 중요합니다.
+4. **추천서 및 자기소개서**: 추천서와 자기소개서는 지원자의 전반적인 능력을 보여주는 중요한 부분입니다. 이들에서 지원자의 열정과 적합성을 잘 표현해야 합니다.
+5. **경쟁률**: 소프트웨어공학부의 경우 경쟁률이 높을 수 있으므로, 다른 학생들과 비교하여 자신의 강점을 잘 부각시켜야 합니다.
+결론적으로 4.2라는 수능 등급은 좋은 기반이지만, 교과 성적과 면접 및 서류 평가에서 우수한 성적을 보여주어야 합니다. 지원 전략을 세우고, 가능한 한 많은 준비를 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.07934632028672832</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>3.92라는 성적이 화학환경공학과의 일반학생전형에 충분히 경쟁력이 있을 것으로 보입니다.
+다음은 주요 정보를 요약한 것입니다:
+1. 동의대학교 화학환경공학과는 정시 모집에서 수능 4개 영역 등급 평균 3.82 이상을 요구하고 있습니다 (표준점수 기준으로 약 390 점대).
+2. 제시된 성적인 3.92는 이 기준을 충족합니다.
+3. 경쟁률이 높지 않은 편이라면, 좋은 성적이면 합격 가능성이 큽니다.
+4. 그러나 최종 결정은 입학사정관의 평가와 면접 결과 등 다양한 요인에 따라 달라질 수 있으므로, 확실한 것은 아닙니다.
+추천 사항:
+1. 추가 지원 자료 준비: 자기소개서, 추천서 등을 잘 준비해보세요.
+2. 면접 대비: 면접 질문을 미리 예상하고 대비하세요.
+3. 다른 학과도 고려: 경쟁률이 높아지면 다른 학과로 지원하는 것도 방법입니다.
+결론적으로, 제시된 성적은 충분히 가능성이 있으나 최종 결정은 입학사정관의 평가에 따라 달라질 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.139519270079783</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학환경공학과는 수능(일반학생전형)을 통해 지원할 수 있습니다. 아래 정보를 참고하시면 도움이 될 것 같습니다:
+1. **수능 반영방법**:
+   - 국어 + 수학 + 탐구 (2개 과목) (가산점 포함) 표준 변환 점수 합
+   - 영어 등급
+2. **성적 산출방법**:
+   - 수능 성적 반영방법은 각 영역별로 25%씩 반영됩니다.
+3. **모집단위 및 지원 가능 여부**:
+   - 화학공학과, 환경공학과, 응용화학과 등 화학환경공학부 관련 모집단위에서 지원 가능합니다.
+   - 4.25의 수능 성적은 일반적으로 충분한 수준으로 보입니다.
+4. **지원 절차**:
+   - 원서접수: 2024년 1월 3일(수) ~ 6일(토)
+   - 실기고사 (필요시): 2024년 1월 17일(수)
+5. **주의사항**:
+   - 지원 가능 여부는 최종 모집인원과 경쟁률에 따라 결정됩니다.
+   - 수능 성적 외에도 학교생활기록부 등 다른 평가 요소도 고려될 수 있으므로, 전반적인 자질을 갖추고 준비하는 것이 중요합니다.
+6. **추천사항**:
+   - 실기고사 준비를 미리 시작하여 실력을 향상시키는 것이 좋습니다.
+   - 학교 홈페이지나 입학처와의 상담을 통해 최신 정보를 확인하시기 바랍니다.
+이러한 점들을 종합적으로 고려하면, 4.25의 수능 성적은 화학환경공학과 지원에 충분히 가능합니다. 하지만 경쟁률 등 다양한 요인을 고려하여 최종 결정을 내리시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.1603069808716669</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 영어 등급은 상당히 낮은 점수입니다. 영화학과는 예체능 분야로, 일반적으로 실기와 서류 평가가 중요하게 작용합니다. 정시 성적만으로 합격하기는 어렵다고 볼 수 있습니다.
+하지만 다음과 같은 요소들을 고려해볼 필요가 있습니다:
+1. **실기 점수**: 영화학과에서는 실기 점수가 매우 중요한 역할을 합니다. 만약 실기가 높다면, 이로 인해 합격 가능성은 높아질 수 있습니다.
+2. **서류 평가**: 서류평가에서 좋은 성적을 받는 것이 중요합니다. 특히 창의성과 표현력이 요구되는 분야에서는 서류가 큰 역할을 합니다.
+3. **전형별 특징**:
+   - **나군 수능(일반학생전형)**: 이 전형은 수능 점수가 100% 반영되므로, 영어 등급이 낮아도 다른 과목의 성적이 높다면 합격 가능성은 있습니다.
+   - **나군 실기/실적(일반학생전형)**: 이 전형에서는 실기가 70% 반영되고, 수능이 30%만 반영되므로 실기가 중요합니다.
+4. **경쟁률**: 영화학과의 경쟁률을 고려해야 합니다. 현재 지원 인원과 모집인원을 비교하여 합격 가능성을 판단할 수 있습니다.
+5. **추천서나 면접 성적**: 추천서나 면접에서 좋은 평가를 받으면 이로 인해 합격 가능성은 높아질 수 있습니다.
+따라서, 정시 성적이 낮더라도 실기가 높다면 합격 가능성이 있습니다. 또한 서류평가에서도 창의성과 표현력을 잘 보여주면 도움이 될 것입니다. 
+추천드리면:
+- 실기 점수를 확인하고 이를 강조할 수 있는 자료를 준비하세요.
+- 서류 평가에서 창의성과 표현력을 잘 보여주는 내용을 포함시켜보세요.
+더 자세한 정보나 도움이 필요하시다면, 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1157617552510739</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용되며, 개별면접 방식으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.7962036687499127</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3969430186521108</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2234025371087612</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.2161506395054951</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.310172777880436</v>
+      <c r="D305" t="n">
+        <v>0.278832065088789</v>
       </c>
     </row>
   </sheetData>
